--- a/A3/Updated_Validation_Data.xlsx
+++ b/A3/Updated_Validation_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B200"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,2396 +441,3998 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Equation</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Output</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>adam had some quarters . he spent 9 of them at the arcade and had 79 left over .how many quarters did he have to start with ?</t>
+          <t>adam had some quarters . he spent 9 of them at the arcade and had 79 left over .</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>how many quarters did he have to start with ?</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>+ 9 79</t>
         </is>
+      </c>
+      <c r="D2" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>at a bus stop 47 people got off the bus . now there were 43 people on the bus .how many people were on the bus before ?</t>
+          <t>at a bus stop 47 people got off the bus . now there were 43 people on the bus .</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>how many people were on the bus before ?</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>+ 47 43</t>
         </is>
+      </c>
+      <c r="D3" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>it takes mike 98 minutes to walk to school . if he rides a bicycle to school it would save him 64 minutes .how much time did mike save ?</t>
+          <t>it takes mike 98 minutes to walk to school . if he rides a bicycle to school it would save him 64 minutes .</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>how much time did mike save ?</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>- 98 64</t>
         </is>
+      </c>
+      <c r="D4" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>a farmer had 46 tomatoes from his garden . after picking some he had 3 left .how many did he pick ?</t>
+          <t>a farmer had 46 tomatoes from his garden . after picking some he had 3 left .</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>how many did he pick ?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>- 46 3</t>
         </is>
+      </c>
+      <c r="D5" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>carol had 97 pieces of tissue paper . after blowing her nose she had 93 left .how many pieces of tissue paper did she use ?</t>
+          <t>carol had 97 pieces of tissue paper . after blowing her nose she had 93 left .</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>how many pieces of tissue paper did she use ?</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>- 97 93</t>
         </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>a chef had 46 apples . after making some pies he had 14 left .how many apples did he use ?</t>
+          <t>a chef had 46 apples . after making some pies he had 14 left .</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>how many apples did he use ?</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>- 46 14</t>
         </is>
+      </c>
+      <c r="D7" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>for halloween oliver got 78 pounds of candy . after giving some to janet he had 68 pounds left .how many pounds did he give to janet ?</t>
+          <t>for halloween oliver got 78 pounds of candy . after giving some to janet he had 68 pounds left .</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>how many pounds did he give to janet ?</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>- 78 68</t>
         </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>there were 58 people on the train . at the next stop 45 people got off .how many people are there on the train now ?</t>
+          <t>there were 58 people on the train . at the next stop 45 people got off .</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>how many people are there on the train now ?</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>- 58 45</t>
         </is>
+      </c>
+      <c r="D9" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>adam needed to climb 96 stair steps to reach the rooftop . he already climbed 74 .how many stair steps do left for adam to climb now ?</t>
+          <t>adam needed to climb 96 stair steps to reach the rooftop . he already climbed 74 .</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>how many stair steps do left for adam to climb now ?</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>- 96 74</t>
         </is>
+      </c>
+      <c r="D10" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>there were 48 people on the train . after the first stop there were 31 people left .how many people got off ?</t>
+          <t>there were 48 people on the train . after the first stop there were 31 people left .</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>how many people got off ?</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>- 48 31</t>
         </is>
+      </c>
+      <c r="D11" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mike had 51 books but he sold 45 at a garage sale .how many books does mike still have ?</t>
+          <t>mike had 51 books but he sold 45 at a garage sale .</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>how many books does mike still have ?</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>- 51 45</t>
         </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jessie weighted 74 kilograms . after she started to go jogging everyday now she weights 67 kilograms .how much weight did she lose in the past ?</t>
+          <t>jessie weighted 74 kilograms . after she started to go jogging everyday now she weights 67 kilograms .</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>how much weight did she lose in the past ?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>- 74 67</t>
         </is>
+      </c>
+      <c r="D13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>at the arcade billy had won 48 tickets . after buying a yoyo he had 32 tickets left .how many tickets did the yoyo cost ?</t>
+          <t>at the arcade billy had won 48 tickets . after buying a yoyo he had 32 tickets left .</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>how many tickets did the yoyo cost ?</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>- 48 32</t>
         </is>
+      </c>
+      <c r="D14" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>for a party adam bought 97 cupcakes . if 58 were eatenhow many cupcakes would adam have left ?</t>
+          <t>for a party adam bought 97 cupcakes . if 58 were eaten</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>how many cupcakes would adam have left ?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>- 97 58</t>
         </is>
+      </c>
+      <c r="D15" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>for a birthday party a clown gave away 6 balloons . now he has 55 balloons left .how many balloons did the clown have to start with ?</t>
+          <t>for a birthday party a clown gave away 6 balloons . now he has 55 balloons left .</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>how many balloons did the clown have to start with ?</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>+ 6 55</t>
         </is>
+      </c>
+      <c r="D16" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>a chef used 39 cherries to make a pie . now he has 58 cherries left .how many cherries did he have before he made the pie ?</t>
+          <t>a chef used 39 cherries to make a pie . now he has 58 cherries left .</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>how many cherries did he have before he made the pie ?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>+ 39 58</t>
         </is>
+      </c>
+      <c r="D17" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>there were 94 dollars in olivia 's wallet . after she visited a supermarket there were 78 dollars left .how much did she spend ?</t>
+          <t>there were 94 dollars in olivia 's wallet . after she visited a supermarket there were 78 dollars left .</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>how much did she spend ?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>- 94 78</t>
         </is>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>while playing a video game ned lost 13 lives . now he has 70 lives .how many lives did ned have at the start ?</t>
+          <t>while playing a video game ned lost 13 lives . now he has 70 lives .</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>how many lives did ned have at the start ?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>+ 13 70</t>
         </is>
+      </c>
+      <c r="D19" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>will was picking up sticks from his yard . he picked up 38 but there were still 61 left .how many sticks were originally in the yard ?</t>
+          <t>will was picking up sticks from his yard . he picked up 38 but there were still 61 left .</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>how many sticks were originally in the yard ?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>+ 38 61</t>
         </is>
+      </c>
+      <c r="D20" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>gwen prepared 98 books to sell in the flea market . after the activity ended she had 96 books left .how many did she sell ?</t>
+          <t>gwen prepared 98 books to sell in the flea market . after the activity ended she had 96 books left .</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>how many did she sell ?</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>- 98 96</t>
         </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>a baker made 90 cakes . if he sold 83 of themhow many cakes would the baker still have ?</t>
+          <t>a baker made 90 cakes . if he sold 83 of them</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>how many cakes would the baker still have ?</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>- 90 83</t>
         </is>
+      </c>
+      <c r="D22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>a chef had 77 cherries . if he used 60 of them to make a piehow many cherries would he still have ?</t>
+          <t>a chef had 77 cherries . if he used 60 of them to make a pie</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>how many cherries would he still have ?</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>- 77 60</t>
         </is>
+      </c>
+      <c r="D23" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>carol had 81 pieces of paper in her folder . after a week she had 38 left .how many pieces did she use in the week ?</t>
+          <t>carol had 81 pieces of paper in her folder . after a week she had 38 left .</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>how many pieces did she use in the week ?</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>- 81 38</t>
         </is>
+      </c>
+      <c r="D24" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>isabel had 90 ds games . if she gave 87 to her friendhow many would she have left ?</t>
+          <t>isabel had 90 ds games . if she gave 87 to her friend</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>how many would she have left ?</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>- 90 87</t>
         </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>maria stored 93 cloves of garlic in the kitchen . she used 86 for roast chicken for dinner .how many cloves of garlic does she have left ?</t>
+          <t>maria stored 93 cloves of garlic in the kitchen . she used 86 for roast chicken for dinner .</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>how many cloves of garlic does she have left ?</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>- 93 86</t>
         </is>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>a store has 35 shirts . if they sold 30 of themhow many shirts would they have ?</t>
+          <t>a store has 35 shirts . if they sold 30 of them</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>how many shirts would they have ?</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>- 35 30</t>
         </is>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>paige used 3 of her pencils . now she has 91 pencils .how many pencils did paige have to begin with ?</t>
+          <t>paige used 3 of her pencils . now she has 91 pencils .</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>how many pencils did paige have to begin with ?</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>+ 3 91</t>
         </is>
+      </c>
+      <c r="D28" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>adam picked 35 strawberries . after eating some he had 33 left .how many strawberries did adam eat ?</t>
+          <t>adam picked 35 strawberries . after eating some he had 33 left .</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>how many strawberries did adam eat ?</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>- 35 33</t>
         </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>janet had 85 paper clips on the desk when she woke up in the morning . before going to bed she found there were 26 left .how many paper clips did she use today ?</t>
+          <t>janet had 85 paper clips on the desk when she woke up in the morning . before going to bed she found there were 26 left .</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>how many paper clips did she use today ?</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>- 85 26</t>
         </is>
+      </c>
+      <c r="D30" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>at the zoo a cage had 68 snakes . if 42 were hidinghow many snakes were not hiding ?</t>
+          <t>at the zoo a cage had 68 snakes . if 42 were hiding</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>how many snakes were not hiding ?</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>- 68 42</t>
         </is>
+      </c>
+      <c r="D31" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>a clown had 82 balloons . after a party he had 16 left .how many balloons did he use at the party ?</t>
+          <t>a clown had 82 balloons . after a party he had 16 left .</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>how many balloons did he use at the party ?</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>- 82 16</t>
         </is>
+      </c>
+      <c r="D32" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>a pet store had 85 gerbils . if they sold 69 of themhow many would they have left ?</t>
+          <t>a pet store had 85 gerbils . if they sold 69 of them</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>how many would they have left ?</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>- 85 69</t>
         </is>
+      </c>
+      <c r="D33" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>in a game you start with 2 lives . if you got 6 extra lives in the first level and 11 more in the secondhow many lives would you have ?</t>
+          <t>in a game you start with 2 lives . if you got 6 extra lives in the first level and 11 more in the second</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>how many lives would you have ?</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>+ + 2 6 11</t>
         </is>
+      </c>
+      <c r="D34" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>a chef was making pies . he made 2 apple 4 pecan and 7 pumpkin pies .how many pies did he make total ?</t>
+          <t>a chef was making pies . he made 2 apple 4 pecan and 7 pumpkin pies .</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>how many pies did he make total ?</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>+ + 2 4 7</t>
         </is>
+      </c>
+      <c r="D35" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>a pet store had 2 white cats 10 black cats and 3 gray cats .how many cats did they have total ?</t>
+          <t>a pet store had 2 white cats 10 black cats and 3 gray cats .</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>how many cats did they have total ?</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>+ + 2 10 3</t>
         </is>
+      </c>
+      <c r="D36" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>jerry was weighing boxes for moving . the first was 2 pounds the second was 11 pounds and the last was 5 pounds .what is the combined weight of all number3 boxes ?</t>
+          <t>jerry was weighing boxes for moving . the first was 2 pounds the second was 11 pounds and the last was 5 pounds .</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>what is the combined weight of all number3 boxes ?</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>+ + 2 11 5</t>
         </is>
+      </c>
+      <c r="D37" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>while playing a trivia game team a scored 2 points team b scored 9 points and team c scored 4 points .how many points were scored total ?</t>
+          <t>while playing a trivia game team a scored 2 points team b scored 9 points and team c scored 4 points .</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>how many points were scored total ?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>+ + 2 9 4</t>
         </is>
+      </c>
+      <c r="D38" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>a pet store had 2 dogs . on sunday they got 5 more . on monday they got 3 more .how many dogs does the pet store have now ?</t>
+          <t>a pet store had 2 dogs . on sunday they got 5 more . on monday they got 3 more .</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>how many dogs does the pet store have now ?</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>+ + 2 5 3</t>
         </is>
+      </c>
+      <c r="D39" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>for lunch 2 students selected chocolate milk 15 selected strawberry milk and 3 selected regular milk .how many milks were taken total ?</t>
+          <t>for lunch 2 students selected chocolate milk 15 selected strawberry milk and 3 selected regular milk .</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>how many milks were taken total ?</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>+ + 2 15 3</t>
         </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>tom already had 2 pieces of candy . his friend gave him 7 more and then tom bought another 10 howmany pieces does tom have now ?</t>
+          <t>tom already had 2 pieces of candy . his friend gave him 7 more and then tom bought another 10 how</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>many pieces does tom have now ?</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>+ + 2 7 10</t>
         </is>
+      </c>
+      <c r="D41" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>while organizing her files bianca deleted 2 pictures 8 songs and 7 text files .what is the total number of files she deleted ?</t>
+          <t>while organizing her files bianca deleted 2 pictures 8 songs and 7 text files .</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>what is the total number of files she deleted ?</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>+ + 2 8 7</t>
         </is>
+      </c>
+      <c r="D42" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>roger had 2 new crayons 4 used crayons and 8 broken crayons .how many crayons did roger have total ?</t>
+          <t>roger had 2 new crayons 4 used crayons and 8 broken crayons .</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>how many crayons did roger have total ?</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>+ + 2 4 8</t>
         </is>
+      </c>
+      <c r="D43" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>for a new year 's party 2 red balloons 12 green balloons and 6 white balloons were used .what is the total number of balloons used ?</t>
+          <t>for a new year 's party 2 red balloons 12 green balloons and 6 white balloons were used .</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>what is the total number of balloons used ?</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>+ + 2 12 6</t>
         </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>a vet was weighing 3 cats . the first weighed 2 pounds . the second weighed 7 pounds and the last weighed 4 pounds .what is their combined weight ?</t>
+          <t>a vet was weighing 3 cats . the first weighed 2 pounds . the second weighed 7 pounds and the last weighed 4 pounds .</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>what is their combined weight ?</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>+ + 2 7 4</t>
         </is>
+      </c>
+      <c r="D45" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>henry already had 5 dollars but earned another 2 dollars doing chores . his friend had 13 dollars . if they put their money togetherhow much would they have ?</t>
+          <t>henry already had 5 dollars but earned another 2 dollars doing chores . his friend had 13 dollars . if they put their money together</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>how much would they have ?</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>+ + 5 2 13</t>
         </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>tom read 2 books in may 6 in june and 10 in july .how many books did tom read ?</t>
+          <t>tom read 2 books in may 6 in june and 10 in july .</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>how many books did tom read ?</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>+ + 2 6 10</t>
         </is>
+      </c>
+      <c r="D47" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>on a table there were 2 green apples 3 red apples and 14 yellow apples .how many apples were on the table ?</t>
+          <t>on a table there were 2 green apples 3 red apples and 14 yellow apples .</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>how many apples were on the table ?</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>+ + 2 3 14</t>
         </is>
+      </c>
+      <c r="D48" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>henry bought 2 new fireworks and his friend bought 3 if they already had 6 saved from last yearhow many do they have now ?</t>
+          <t>henry bought 2 new fireworks and his friend bought 3 if they already had 6 saved from last year</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>how many do they have now ?</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>+ + 2 3 6</t>
         </is>
+      </c>
+      <c r="D49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>a pet store had 13 siamese cats and 5 house cats . during a sale they sold 10 cats .how many cats do they have left ?</t>
+          <t>a pet store had 13 siamese cats and 5 house cats . during a sale they sold 10 cats .</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>how many cats do they have left ?</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>- + 13 5 10</t>
         </is>
+      </c>
+      <c r="D50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>oliver had to wash 39 short sleeve shirts and 47 long sleeve shirts before school . if he had only washed 20 of them by the time school startedhow many did he not wash ?</t>
+          <t>oliver had to wash 39 short sleeve shirts and 47 long sleeve shirts before school . if he had only washed 20 of them by the time school started</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>how many did he not wash ?</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>- + 39 47 20</t>
         </is>
+      </c>
+      <c r="D51" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>while on vacation debby took 24 pictures at the zoo and 12 at the museum . if she later deleted 14 of the pictureshow many pictures from her vacation did she still have ?</t>
+          <t>while on vacation debby took 24 pictures at the zoo and 12 at the museum . if she later deleted 14 of the pictures</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>how many pictures from her vacation did she still have ?</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>- + 24 12 14</t>
         </is>
+      </c>
+      <c r="D52" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>faye and her mom were picking carrots from their garden . faye picked 23 and her mother picked 5 if only 12 of the carrots were goodhow many bad carrots did they have ?</t>
+          <t>faye and her mom were picking carrots from their garden . faye picked 23 and her mother picked 5 if only 12 of the carrots were good</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>how many bad carrots did they have ?</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>- + 23 5 12</t>
         </is>
+      </c>
+      <c r="D53" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>at the schools book fair sam bought 13 adventure books and 17 mystery books . if 15 of the books were usedhow many new books did he buy ?</t>
+          <t>at the schools book fair sam bought 13 adventure books and 17 mystery books . if 15 of the books were used</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>how many new books did he buy ?</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>- + 13 17 15</t>
         </is>
+      </c>
+      <c r="D54" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>amy had 26 music files and 36 video files on her flash drive . if she deleted 48 of the fileshow many files were still on her flash drive ?</t>
+          <t>amy had 26 music files and 36 video files on her flash drive . if she deleted 48 of the files</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>how many files were still on her flash drive ?</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>- + 26 36 48</t>
         </is>
+      </c>
+      <c r="D55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>emily was playing a trivia game . in the first round she scored 16 points and in the second round she scored 33 points . in the last round she lost 48 points .how many points did she have at the end of the game ?</t>
+          <t>emily was playing a trivia game . in the first round she scored 16 points and in the second round she scored 33 points . in the last round she lost 48 points .</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>how many points did she have at the end of the game ?</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>- + 16 33 48</t>
         </is>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>paige had 43 math problems and 12 science problems for homework . if she finished 44 of the problems at schoolhow many problems did she have to do for homework ?</t>
+          <t>paige had 43 math problems and 12 science problems for homework . if she finished 44 of the problems at school</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>how many problems did she have to do for homework ?</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>- + 43 12 44</t>
         </is>
+      </c>
+      <c r="D57" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>edward started his own lawn mowing business . in the spring he made 2 dollars mowing lawns and in the summer he made 27 dollars . if he had to spend 5 dollars buying supplieshow much money did he end up with ?</t>
+          <t>edward started his own lawn mowing business . in the spring he made 2 dollars mowing lawns and in the summer he made 27 dollars . if he had to spend 5 dollars buying supplies</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>how much money did he end up with ?</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>- + 2 27 5</t>
         </is>
+      </c>
+      <c r="D58" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>for the school bake sale amy made pastries . she baked 15 cupcakes and 48 cookies . after the sale she had 12 to take back home .how many pastries did she sell ?</t>
+          <t>for the school bake sale amy made pastries . she baked 15 cupcakes and 48 cookies . after the sale she had 12 to take back home .</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>how many pastries did she sell ?</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>- + 15 48 12</t>
         </is>
+      </c>
+      <c r="D59" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>while shopping maria bought 35 green towels and 21 white towels . if she gave her mother 34 of themhow many towels did maria end up with ?</t>
+          <t>while shopping maria bought 35 green towels and 21 white towels . if she gave her mother 34 of them</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>how many towels did maria end up with ?</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>- + 35 21 34</t>
         </is>
+      </c>
+      <c r="D60" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>there were 17 girls and 32 boys trying out for the schools basketball team . if only 10 of them got called backhow many students did n't make the cut ?</t>
+          <t>there were 17 girls and 32 boys trying out for the schools basketball team . if only 10 of them got called back</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>how many students did n't make the cut ?</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>- + 17 32 10</t>
         </is>
+      </c>
+      <c r="D61" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>a waiter at 'the greasy spoon ' restaurant had 39 customers to wait on . during the lunch rush he added another 12 customers . if 49 of the customers did n't leave him a tiphow many customers did leave a tip ?</t>
+          <t>a waiter at 'the greasy spoon ' restaurant had 39 customers to wait on . during the lunch rush he added another 12 customers . if 49 of the customers did n't leave him a tip</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>how many customers did leave a tip ?</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>- + 39 12 49</t>
         </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>the school cafeteria ordered 25 red apples and 17 green apples for students lunches . but if only 10 students wanted fruithow many extra did the cafeteria end up with ?</t>
+          <t>the school cafeteria ordered 25 red apples and 17 green apples for students lunches . but if only 10 students wanted fruit</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>how many extra did the cafeteria end up with ?</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>- + 25 17 10</t>
         </is>
+      </c>
+      <c r="D63" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>cody had 45 dollars . for his birthday he got 9 more dollars but spent 19 on a new game .how much money does he have now ?</t>
+          <t>cody had 45 dollars . for his birthday he got 9 more dollars but spent 19 on a new game .</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>how much money does he have now ?</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>- + 45 9 19</t>
         </is>
+      </c>
+      <c r="D64" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>a chef only had 3 apples so he ordered 2 more bags . if each bag has 9 appleshow many apples does he have total ?</t>
+          <t>a chef only had 3 apples so he ordered 2 more bags . if each bag has 9 apples</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>how many apples does he have total ?</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>+ * 2 9 3</t>
         </is>
+      </c>
+      <c r="D65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>edward earned 8 dollars for every lawn he mowed . if he mowed 5 lawns and he already had 7 dollars saved uphow much money does he have total ?</t>
+          <t>edward earned 8 dollars for every lawn he mowed . if he mowed 5 lawns and he already had 7 dollars saved up</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>how much money does he have total ?</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>+ * 5 8 7</t>
         </is>
+      </c>
+      <c r="D66" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>at a comic convention janet wanted to buy 8 comics but each one costs 4 dollars plus it costs 2 to even get in .how much money should she take with her so she can get in and buy what she wants ?</t>
+          <t>at a comic convention janet wanted to buy 8 comics but each one costs 4 dollars plus it costs 2 to even get in .</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>how much money should she take with her so she can get in and buy what she wants ?</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>+ * 8 4 2</t>
         </is>
+      </c>
+      <c r="D67" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>olivia had 7 math problems to complete . she spent about 4 minutes on each problem and then she spent 3 minutes checking her answers .how many minutes did she spend total ?</t>
+          <t>olivia had 7 math problems to complete . she spent about 4 minutes on each problem and then she spent 3 minutes checking her answers .</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>how many minutes did she spend total ?</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>+ * 7 4 3</t>
         </is>
+      </c>
+      <c r="D68" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>before lunch a waitress had already earned $ 5 in tips . after lunch she had 7 customers and each customer gave her a 2 dollar tip .how much money did she earn total ?</t>
+          <t>before lunch a waitress had already earned $ 5 in tips . after lunch she had 7 customers and each customer gave her a 2 dollar tip .</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>how much money did she earn total ?</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>+ * 7 2 5</t>
         </is>
+      </c>
+      <c r="D69" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>at band practice there were 4 rows of students with 8 students in each row and then another 9 students in the back .how many students were there total ?</t>
+          <t>at band practice there were 4 rows of students with 8 students in each row and then another 9 students in the back .</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>how many students were there total ?</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>+ * 4 8 9</t>
         </is>
+      </c>
+      <c r="D70" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>while playing a game frank defeated 6 enemies . each enemy earned him 9 points . then he got another 8 points for completing the level .how many points did he earn total ?</t>
+          <t>while playing a game frank defeated 6 enemies . each enemy earned him 9 points . then he got another 8 points for completing the level .</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>how many points did he earn total ?</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>+ * 6 9 8</t>
         </is>
+      </c>
+      <c r="D71" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>wendy 's brother had 6 pieces of candy . wendy had 2 boxes with 3 pieces each .how many pieces did they have total ?</t>
+          <t>wendy 's brother had 6 pieces of candy . wendy had 2 boxes with 3 pieces each .</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>how many pieces did they have total ?</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>+ * 2 3 6</t>
         </is>
+      </c>
+      <c r="D72" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>a baker made 2 batches of chocolate chip cookies . each batch had 3 cookies in it . then he made an additional 4 oatmeal cookies just in case someone did n't want chocolate chip .how many cookies did he bake total ?</t>
+          <t>a baker made 2 batches of chocolate chip cookies . each batch had 3 cookies in it . then he made an additional 4 oatmeal cookies just in case someone did n't want chocolate chip .</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>how many cookies did he bake total ?</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>+ * 2 3 4</t>
         </is>
+      </c>
+      <c r="D73" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>a report said that each day the average youtube viewer watches 2 videos with each video lasting 7 minutes . additionally they also watch 3 minutes of ads . according to the reporthow many minutes total do people spend on youtube ?</t>
+          <t>a report said that each day the average youtube viewer watches 2 videos with each video lasting 7 minutes . additionally they also watch 3 minutes of ads . according to the report</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>how many minutes total do people spend on youtube ?</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>+ * 2 7 3</t>
         </is>
+      </c>
+      <c r="D74" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>zoe bought an app that cost $ 5 dollars . then each month you have to pay $ 8 to play online . if she played the game online for 2 monthshow much money would she have spent total for the app and the online access ?</t>
+          <t>zoe bought an app that cost $ 5 dollars . then each month you have to pay $ 8 to play online . if she played the game online for 2 months</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>how much money would she have spent total for the app and the online access ?</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>+ * 8 2 5</t>
         </is>
+      </c>
+      <c r="D75" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>adam had 8 boxes of toys . each box had 6 toys . later adam bought 5 more toys .how many toys did he have total ?</t>
+          <t>adam had 8 boxes of toys . each box had 6 toys . later adam bought 5 more toys .</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>how many toys did he have total ?</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>+ * 8 6 5</t>
         </is>
+      </c>
+      <c r="D76" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>a company was offering a special on cell phones for $ 2 each . but only if you spent 7 dollars a month for 4 months .how much would it end up costing you total if you bought number3 phone ?</t>
+          <t>a company was offering a special on cell phones for $ 2 each . but only if you spent 7 dollars a month for 4 months .</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>how much would it end up costing you total if you bought number3 phone ?</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>+ * 7 4 2</t>
         </is>
+      </c>
+      <c r="D77" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>at the arcade amy had 6 tickets she saved from the last time she went . this time she played a game 7 times and earned 5 tickets each time she played .how many tickets does she have now ?</t>
+          <t>at the arcade amy had 6 tickets she saved from the last time she went . this time she played a game 7 times and earned 5 tickets each time she played .</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>how many tickets does she have now ?</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>+ * 7 5 6</t>
         </is>
+      </c>
+      <c r="D78" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>a grocery store had 49 bottles of regular soda and 35 bottles of diet soda .how many bottles did they have total ?</t>
+          <t>a grocery store had 49 bottles of regular soda and 35 bottles of diet soda .</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>how many bottles did they have total ?</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>+ 49 35</t>
         </is>
+      </c>
+      <c r="D79" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>while playing a game sam had 92 points . if he scored another 3 pointshow many points would he have total ?</t>
+          <t>while playing a game sam had 92 points . if he scored another 3 points</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>how many points would he have total ?</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>+ 92 3</t>
         </is>
+      </c>
+      <c r="D80" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>in the first half of a trivia game kaleb scored 43 points . in the second half he scored 23 points .how many points did he score total ?</t>
+          <t>in the first half of a trivia game kaleb scored 43 points . in the second half he scored 23 points .</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>how many points did he score total ?</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>+ 43 23</t>
         </is>
+      </c>
+      <c r="D81" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>mike owned 64 baseball cards . for his birthday he got 18 more .how many cards does mike have total ?</t>
+          <t>mike owned 64 baseball cards . for his birthday he got 18 more .</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>how many cards does mike have total ?</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>+ 64 18</t>
         </is>
+      </c>
+      <c r="D82" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>for a party henry spent 45 dollars on food and 33 dollars on drinks .how much did henry spend total ?</t>
+          <t>for a party henry spent 45 dollars on food and 33 dollars on drinks .</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>how much did henry spend total ?</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>+ 45 33</t>
         </is>
+      </c>
+      <c r="D83" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>a restaurant sold 77 sodas in the morning and 19 in the afternoon .how many sodas did they sell total ?</t>
+          <t>a restaurant sold 77 sodas in the morning and 19 in the afternoon .</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>how many sodas did they sell total ?</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>+ 77 19</t>
         </is>
+      </c>
+      <c r="D84" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>bianca spent 22 minutes drawing at school and 19 minutes drawing at home .how many minutes total did she spend drawing ?</t>
+          <t>bianca spent 22 minutes drawing at school and 19 minutes drawing at home .</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>how many minutes total did she spend drawing ?</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>+ 22 19</t>
         </is>
+      </c>
+      <c r="D85" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>a fast food restaurant sold 58 small hotdogs and 21 large hotdogs .how many hotdogs did they sell total ?</t>
+          <t>a fast food restaurant sold 58 small hotdogs and 21 large hotdogs .</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>how many hotdogs did they sell total ?</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>+ 58 21</t>
         </is>
+      </c>
+      <c r="D86" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>henry had $ 54 . later he sold some of his old toys and got another $ 2 .how much money does he have total ?</t>
+          <t>henry had $ 54 . later he sold some of his old toys and got another $ 2 .</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>how much money does he have total ?</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>+ 54 2</t>
         </is>
+      </c>
+      <c r="D87" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>an aquarium had 10 fish in it . later they added 3 fish .how many fish are in the aquarium now ?</t>
+          <t>an aquarium had 10 fish in it . later they added 3 fish .</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>how many fish are in the aquarium now ?</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>+ 10 3</t>
         </is>
+      </c>
+      <c r="D88" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>isabel had 68 pieces of candy . her friend gave her 25 more pieces .how many pieces of candy did isabel have total ?</t>
+          <t>isabel had 68 pieces of candy . her friend gave her 25 more pieces .</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>how many pieces of candy did isabel have total ?</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>+ 68 25</t>
         </is>
+      </c>
+      <c r="D89" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>maria had 50 sheets of paper in her desk and 41 more in her backpack .how many did she have total ?</t>
+          <t>maria had 50 sheets of paper in her desk and 41 more in her backpack .</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>how many did she have total ?</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>+ 50 41</t>
         </is>
+      </c>
+      <c r="D90" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>on facebook debby had 63 photos of her friends and 23 photos of her family .how many photos did she have total ?</t>
+          <t>on facebook debby had 63 photos of her friends and 23 photos of her family .</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>how many photos did she have total ?</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>+ 63 23</t>
         </is>
+      </c>
+      <c r="D91" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>adam had 79 dollars saved up . after doing some chores his mother gave him another 13 dollars .how much money does he have total ?</t>
+          <t>adam had 79 dollars saved up . after doing some chores his mother gave him another 13 dollars .</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>how much money does he have total ?</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>+ 79 13</t>
         </is>
+      </c>
+      <c r="D92" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>at the fair amy started with 33 tickets and then bought 21 more .how many tickets did amy have total ?</t>
+          <t>at the fair amy started with 33 tickets and then bought 21 more .</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>how many tickets did amy have total ?</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>+ 33 21</t>
         </is>
+      </c>
+      <c r="D93" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>mike collected 71 cans to recycle on monday and 27 more on tuesday .how many cans did mike collect all together ?</t>
+          <t>mike collected 71 cans to recycle on monday and 27 more on tuesday .</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>how many cans did mike collect all together ?</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>+ 71 27</t>
         </is>
+      </c>
+      <c r="D94" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>a baker already had 78 cakes but made 9 extra .how many cakes did the baker have total ?</t>
+          <t>a baker already had 78 cakes but made 9 extra .</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>how many cakes did the baker have total ?</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>+ 78 9</t>
         </is>
+      </c>
+      <c r="D95" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>a pet store had 64 birds that talked and 13 that did n't .how many birds did the pet store have total ?</t>
+          <t>a pet store had 64 birds that talked and 13 that did n't .</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>how many birds did the pet store have total ?</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>+ 64 13</t>
         </is>
+      </c>
+      <c r="D96" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>at the zoo zoe took 67 pictures . if her sister took another 17 pictureshow many did they take total ?</t>
+          <t>at the zoo zoe took 67 pictures . if her sister took another 17 pictures</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>how many did they take total ?</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>+ 67 17</t>
         </is>
+      </c>
+      <c r="D97" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>at the arcade henry had won 58 tickets . later he won 40 more tickets .how many tickets did henry have total ?</t>
+          <t>at the arcade henry had won 58 tickets . later he won 40 more tickets .</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>how many tickets did henry have total ?</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>+ 58 40</t>
         </is>
+      </c>
+      <c r="D98" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>katie had 72 ds games and her friend had 23 games .how many do they have total ?</t>
+          <t>katie had 72 ds games and her friend had 23 games .</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>how many do they have total ?</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>+ 72 23</t>
         </is>
+      </c>
+      <c r="D99" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>while exercising paul did 59 push-ups in the morning and 38 more in the afternoon .how many push-ups did paul do total ?</t>
+          <t>while exercising paul did 59 push-ups in the morning and 38 more in the afternoon .</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>how many push-ups did paul do total ?</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>+ 59 38</t>
         </is>
+      </c>
+      <c r="D100" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>a farmer planted 20 seeds on wednesday and another 2 seeds on thursday .how many seeds did he plant total ?</t>
+          <t>a farmer planted 20 seeds on wednesday and another 2 seeds on thursday .</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>how many seeds did he plant total ?</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>+ 20 2</t>
         </is>
+      </c>
+      <c r="D101" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>haley watched tv for 6 hours on saturday and 3 hours on sunday .how many hours did haley watch tv total ?</t>
+          <t>haley watched tv for 6 hours on saturday and 3 hours on sunday .</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>how many hours did haley watch tv total ?</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>+ 6 3</t>
         </is>
+      </c>
+      <c r="D102" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>gwen had 10 fish and her sister had 5 fish .how many fish did they have total ?</t>
+          <t>gwen had 10 fish and her sister had 5 fish .</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>how many fish did they have total ?</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>+ 10 5</t>
         </is>
+      </c>
+      <c r="D103" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>victor had $ 10 . for his allowance he got another $ 8 .how much money does he have total ?</t>
+          <t>victor had $ 10 . for his allowance he got another $ 8 .</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>how much money does he have total ?</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>+ 10 8</t>
         </is>
+      </c>
+      <c r="D104" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>for halloween frank got 10 pounds of candy and gwen got 7 pounds of candy .what is the combined weight they received ?</t>
+          <t>for halloween frank got 10 pounds of candy and gwen got 7 pounds of candy .</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
+          <t>what is the combined weight they received ?</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>+ 10 7</t>
         </is>
+      </c>
+      <c r="D105" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>a store sold 8 cold drinks and 3 hot drinks .how many drinks did they sell total ?</t>
+          <t>a store sold 8 cold drinks and 3 hot drinks .</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>how many drinks did they sell total ?</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>+ 8 3</t>
         </is>
+      </c>
+      <c r="D106" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>faye had 7 books . if she bought 12 more at a yard salehow many would she have total ?</t>
+          <t>faye had 7 books . if she bought 12 more at a yard sale</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
+          <t>how many would she have total ?</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
           <t>+ 7 12</t>
         </is>
+      </c>
+      <c r="D107" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>john has 12 shirts . later he bought 4 more shirts .how many shirts does john have total ?</t>
+          <t>john has 12 shirts . later he bought 4 more shirts .</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
+          <t>how many shirts does john have total ?</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
           <t>+ 12 4</t>
         </is>
+      </c>
+      <c r="D108" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>roger went to the movies 15 times last year and 3 times this year .how many times did roger go to the movies all together ?</t>
+          <t>roger went to the movies 15 times last year and 3 times this year .</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>how many times did roger go to the movies all together ?</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
           <t>+ 15 3</t>
         </is>
+      </c>
+      <c r="D109" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>olivia picked up 16 pieces of paper from the floor . if edward picked up 3 pieceshow many did they pick up total ?</t>
+          <t>olivia picked up 16 pieces of paper from the floor . if edward picked up 3 pieces</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
+          <t>how many did they pick up total ?</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
           <t>+ 16 3</t>
         </is>
+      </c>
+      <c r="D110" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>victor had 9 books . during the book fair he bought 3 more .how many books did victor have total ?</t>
+          <t>victor had 9 books . during the book fair he bought 3 more .</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
+          <t>how many books did victor have total ?</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
           <t>+ 9 3</t>
         </is>
+      </c>
+      <c r="D111" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>katie had 12 pencils in her desk and 3 more in her backpack .how many did she have total ?</t>
+          <t>katie had 12 pencils in her desk and 3 more in her backpack .</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
+          <t>how many did she have total ?</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
           <t>+ 12 3</t>
         </is>
+      </c>
+      <c r="D112" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>debby had 12 pounds of flour . if she bought another 4 poundshow many pounds would she have total ?</t>
+          <t>debby had 12 pounds of flour . if she bought another 4 pounds</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>how many pounds would she have total ?</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>+ 12 4</t>
         </is>
+      </c>
+      <c r="D113" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>jerry owned 7 video games . for his birthday he got 2 more .how many games did jerry have total ?</t>
+          <t>jerry owned 7 video games . for his birthday he got 2 more .</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>how many games did jerry have total ?</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>+ 7 2</t>
         </is>
+      </c>
+      <c r="D114" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>there were 10 people on the bus . at the next stop 3 more people got on the bus .how many people are there on the bus now ?</t>
+          <t>there were 10 people on the bus . at the next stop 3 more people got on the bus .</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>how many people are there on the bus now ?</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
           <t>+ 10 3</t>
         </is>
+      </c>
+      <c r="D115" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>for halloween faye scored 47 pieces of candy . she ate 25 pieces the first night and then her sister gave her 40 more pieces .how many pieces of candy does faye have now ?</t>
+          <t>for halloween faye scored 47 pieces of candy . she ate 25 pieces the first night and then her sister gave her 40 more pieces .</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
+          <t>how many pieces of candy does faye have now ?</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
           <t>+ - 47 25 40</t>
         </is>
+      </c>
+      <c r="D116" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>a waiter had 47 customers to wait on . if 41 customers left and he got another 20 customershow many customers would he have ?</t>
+          <t>a waiter had 47 customers to wait on . if 41 customers left and he got another 20 customers</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>how many customers would he have ?</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
           <t>+ - 47 41 20</t>
         </is>
+      </c>
+      <c r="D117" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>tiffany was playing a video game and had 43 lives . in a hard part of the game she lost 14 lives . if she got 27 more lives in the next levelhow many lives would she have ?</t>
+          <t>tiffany was playing a video game and had 43 lives . in a hard part of the game she lost 14 lives . if she got 27 more lives in the next level</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>how many lives would she have ?</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>+ - 43 14 27</t>
         </is>
+      </c>
+      <c r="D118" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>a teacher had 38 worksheets to grade . if she graded 4 but then another 15 were turned inhow many worksheets would she have to grade ?</t>
+          <t>a teacher had 38 worksheets to grade . if she graded 4 but then another 15 were turned in</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>how many worksheets would she have to grade ?</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
           <t>+ - 38 4 15</t>
         </is>
+      </c>
+      <c r="D119" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>a book store had 4 books in the bargin bin . if they sold 3 books but then put 10 more in the binhow many books would be in the bin ?</t>
+          <t>a book store had 4 books in the bargin bin . if they sold 3 books but then put 10 more in the bin</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
+          <t>how many books would be in the bin ?</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
           <t>+ - 4 3 10</t>
         </is>
+      </c>
+      <c r="D120" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>bianca had 45 coloring books . if she gave away 6 of them but then bought 20 morehow many would she have total ?</t>
+          <t>bianca had 45 coloring books . if she gave away 6 of them but then bought 20 more</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
+          <t>how many would she have total ?</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
           <t>+ - 45 6 20</t>
         </is>
+      </c>
+      <c r="D121" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>robin had 30 songs on her 3 player . if she deleted 8 old songs from it and then added 10 new songshow many songs does she have on her number4 player ?</t>
+          <t>robin had 30 songs on her 3 player . if she deleted 8 old songs from it and then added 10 new songs</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>how many songs does she have on her number4 player ?</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
           <t>+ - 30 8 10</t>
         </is>
+      </c>
+      <c r="D122" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>the school cafeteria had 17 apples . if they used 2 to make lunch for the students and then bought 23 morehow many apples would they have ?</t>
+          <t>the school cafeteria had 17 apples . if they used 2 to make lunch for the students and then bought 23 more</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
+          <t>how many apples would they have ?</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
           <t>+ - 17 2 23</t>
         </is>
+      </c>
+      <c r="D123" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>nancy picked 12 carrots from her garden . if she threw out 2 of them and then picked 21 more the next dayhow many carrots would she have total ?</t>
+          <t>nancy picked 12 carrots from her garden . if she threw out 2 of them and then picked 21 more the next day</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
+          <t>how many carrots would she have total ?</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
           <t>+ - 12 2 21</t>
         </is>
+      </c>
+      <c r="D124" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>john had 33 socks . if he threw away 19 old 1 that did n't fit and bought 13 new 1how many socks would he have ?</t>
+          <t>john had 33 socks . if he threw away 19 old 1 that did n't fit and bought 13 new 1</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
+          <t>how many socks would he have ?</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
           <t>+ - 33 19 13</t>
         </is>
+      </c>
+      <c r="D125" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>zoe had 42 bottles of water in her fridge . if she drank 25 of them and then bought 30 morehow many bottles would she have ?</t>
+          <t>zoe had 42 bottles of water in her fridge . if she drank 25 of them and then bought 30 more</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
+          <t>how many bottles would she have ?</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
           <t>+ - 42 25 30</t>
         </is>
+      </c>
+      <c r="D126" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>luke had 48 dollars in january . by march he had spent 11 dollars . if he got another 21 dollars from his momhow much money would he have ?</t>
+          <t>luke had 48 dollars in january . by march he had spent 11 dollars . if he got another 21 dollars from his mom</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
+          <t>how much money would he have ?</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
           <t>+ - 48 11 21</t>
         </is>
+      </c>
+      <c r="D127" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>a florist had 50 roses . if she sold 15 of them and then later picked 21 morehow many roses would she have ?</t>
+          <t>a florist had 50 roses . if she sold 15 of them and then later picked 21 more</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
+          <t>how many roses would she have ?</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
           <t>+ - 50 15 21</t>
         </is>
+      </c>
+      <c r="D128" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>a store had 40 oranges in a bin . if they threw away 25 of the old 1 and put 21 new 1 in the binhow many would be in the bin ?</t>
+          <t>a store had 40 oranges in a bin . if they threw away 25 of the old 1 and put 21 new 1 in the bin</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
+          <t>how many would be in the bin ?</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
           <t>+ - 40 25 21</t>
         </is>
+      </c>
+      <c r="D129" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>vanessa uploaded 23 pictures from her phone and 7 from her camera to facebook . if she sorted the pics into 5 different albums with the same amount of pics in each albumhow many pictures were in each of the albums ?</t>
+          <t>vanessa uploaded 23 pictures from her phone and 7 from her camera to facebook . if she sorted the pics into 5 different albums with the same amount of pics in each album</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
+          <t>how many pictures were in each of the albums ?</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
           <t>/ + 23 7 5</t>
         </is>
+      </c>
+      <c r="D130" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>paul made 44 dollars mowing lawns and 28 dollars weed eating . if he only spent 9 dollar a weekhow long would the money last him ?</t>
+          <t>paul made 44 dollars mowing lawns and 28 dollars weed eating . if he only spent 9 dollar a week</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
+          <t>how long would the money last him ?</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
           <t>/ + 44 28 9</t>
         </is>
+      </c>
+      <c r="D131" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>the school 's baseball team had 2 new players and 22 returning players . if the coach put them into groups with 3 players in each grouphow many groups would there be ?</t>
+          <t>the school 's baseball team had 2 new players and 22 returning players . if the coach put them into groups with 3 players in each group</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
+          <t>how many groups would there be ?</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
           <t>/ + 2 22 3</t>
         </is>
+      </c>
+      <c r="D132" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>chloe and her friends were recycling paper for their class . for every 6 pounds they recycled they earned 1 point . if chloe recycled 28 pounds and her friends recycled 2 poundshow many points did they earn ?</t>
+          <t>chloe and her friends were recycling paper for their class . for every 6 pounds they recycled they earned 1 point . if chloe recycled 28 pounds and her friends recycled 2 pounds</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
+          <t>how many points did they earn ?</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
           <t>/ + 28 2 6</t>
         </is>
+      </c>
+      <c r="D133" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>a pet shelter had 23 puppies when another 2 were brought in . if 5 puppies a day are adoptedhow long would it take for all of them to be adopted ?</t>
+          <t>a pet shelter had 23 puppies when another 2 were brought in . if 5 puppies a day are adopted</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
+          <t>how long would it take for all of them to be adopted ?</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
           <t>/ + 23 2 5</t>
         </is>
+      </c>
+      <c r="D134" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>haley 's old washing machine could only wash 7 pieces of clothing at a time . if she had to wash 2 shirts and 33 sweatershow many loads would she have to do ?</t>
+          <t>haley 's old washing machine could only wash 7 pieces of clothing at a time . if she had to wash 2 shirts and 33 sweaters</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
+          <t>how many loads would she have to do ?</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
           <t>/ + 2 33 7</t>
         </is>
+      </c>
+      <c r="D135" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>dave was organizing his baseball cards in a binder with 8 on each page . if he had 3 new cards and 13 old cards to put in the binderhow many pages would he use ?</t>
+          <t>dave was organizing his baseball cards in a binder with 8 on each page . if he had 3 new cards and 13 old cards to put in the binder</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
+          <t>how many pages would he use ?</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
           <t>/ + 3 13 8</t>
         </is>
+      </c>
+      <c r="D136" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>a vase can hold 9 flowers . if you had 4 carnations and 23 roseshow many vases would you need to hold the flowers ?</t>
+          <t>a vase can hold 9 flowers . if you had 4 carnations and 23 roses</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
+          <t>how many vases would you need to hold the flowers ?</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
           <t>/ + 4 23 9</t>
         </is>
+      </c>
+      <c r="D137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>for homework megan had 36 math problems and 28 spelling problems . if she can finish 8 problems in an hourhow long will it take her to finish all the problems ?</t>
+          <t>for homework megan had 36 math problems and 28 spelling problems . if she can finish 8 problems in an hour</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
+          <t>how long will it take her to finish all the problems ?</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
           <t>/ + 36 28 8</t>
         </is>
+      </c>
+      <c r="D138" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>gwen 's class is going on a field trip to the zoo . if each van can hold 7 people and there are 33 students and 9 adults goinghow many vans will they need ?</t>
+          <t>gwen 's class is going on a field trip to the zoo . if each van can hold 7 people and there are 33 students and 9 adults going</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
+          <t>how many vans will they need ?</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
           <t>/ + 9 33 7</t>
         </is>
+      </c>
+      <c r="D139" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>while playing at the arcade kaleb won 8 tickets playing 'whack a mole ' and 7 tickets playing 'skee ball ' . if he was trying to buy candy that cost 5 tickets a piecehow many could he buy ?</t>
+          <t>while playing at the arcade kaleb won 8 tickets playing 'whack a mole ' and 7 tickets playing 'skee ball ' . if he was trying to buy candy that cost 5 tickets a piece</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
+          <t>how many could he buy ?</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
           <t>/ + 8 7 5</t>
         </is>
+      </c>
+      <c r="D140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>chloe was making baggies of cookies with 7 cookies in each bag . if she had 34 chocolate chip cookies and 29 oatmeal cookieshow many baggies could she make ?</t>
+          <t>chloe was making baggies of cookies with 7 cookies in each bag . if she had 34 chocolate chip cookies and 29 oatmeal cookies</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
+          <t>how many baggies could she make ?</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
           <t>/ + 29 34 7</t>
         </is>
+      </c>
+      <c r="D141" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>at the town carnival billy rode the ferris wheel 7 times and the bumper cars 3 times . if each ride cost 5 ticketshow many tickets did he use ?</t>
+          <t>at the town carnival billy rode the ferris wheel 7 times and the bumper cars 3 times . if each ride cost 5 tickets</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
+          <t>how many tickets did he use ?</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
           <t>* + 7 3 5</t>
         </is>
+      </c>
+      <c r="D142" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>paul bought 6 boxes of chocolate candy and 4 boxes of caramel candy . if each box has 9 pieces inside ithow much candy did he have total ?</t>
+          <t>paul bought 6 boxes of chocolate candy and 4 boxes of caramel candy . if each box has 9 pieces inside it</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
+          <t>how much candy did he have total ?</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
           <t>* + 6 4 9</t>
         </is>
+      </c>
+      <c r="D143" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>at billy 's restaurant a group with 2 adults and 5 children came in to eat . if each meal cost 3 dollarshow much was the bill ?</t>
+          <t>at billy 's restaurant a group with 2 adults and 5 children came in to eat . if each meal cost 3 dollars</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
+          <t>how much was the bill ?</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
           <t>* + 2 5 3</t>
         </is>
+      </c>
+      <c r="D144" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>haley 's favorite band was holding a concert where tickets were 4 dollars each . haley bought 3 tickets for herself and her friends and 5 extra tickets in case anyone else wanted to go .how much did she spend ?</t>
+          <t>haley 's favorite band was holding a concert where tickets were 4 dollars each . haley bought 3 tickets for herself and her friends and 5 extra tickets in case anyone else wanted to go .</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
+          <t>how much did she spend ?</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
           <t>* + 3 5 4</t>
         </is>
+      </c>
+      <c r="D145" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>tiffany had 6 pages of math homework and 4 pages of reading homework . if each page had 3 problems on ithow many problems did she have to complete total ?</t>
+          <t>tiffany had 6 pages of math homework and 4 pages of reading homework . if each page had 3 problems on it</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
+          <t>how many problems did she have to complete total ?</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
           <t>* + 6 4 3</t>
         </is>
+      </c>
+      <c r="D146" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>zoe was unboxing some of her old winter clothes . she found 8 boxes of clothing and inside each box there were 4 scarves and 6 mittens .how many pieces of winter clothing did zoe have total ?</t>
+          <t>zoe was unboxing some of her old winter clothes . she found 8 boxes of clothing and inside each box there were 4 scarves and 6 mittens .</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
+          <t>how many pieces of winter clothing did zoe have total ?</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
           <t>* + 4 6 8</t>
         </is>
+      </c>
+      <c r="D147" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>gwen was organizing her book case making sure each of the shelves had exactly 4 books on it . if she had 5 shelves of mystery books and 3 shelves of picture bookshow many books did she have total ?</t>
+          <t>gwen was organizing her book case making sure each of the shelves had exactly 4 books on it . if she had 5 shelves of mystery books and 3 shelves of picture books</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
+          <t>how many books did she have total ?</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
           <t>* + 5 3 4</t>
         </is>
+      </c>
+      <c r="D148" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>rachel bought 7 new chairs and 3 new tables for her house . if she spent 4 minutes on each piece furniture putting it togetherhow many minutes did it take her to finish ?</t>
+          <t>rachel bought 7 new chairs and 3 new tables for her house . if she spent 4 minutes on each piece furniture putting it together</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
+          <t>how many minutes did it take her to finish ?</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
           <t>* + 7 3 4</t>
         </is>
+      </c>
+      <c r="D149" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>a store had 87 coloring books in stock . they ended up putting them on sale and getting rid of 33 of them . the put the 1 they still had onto shelves with 6 on each shelf .how many shelves did they use ?</t>
+          <t>a store had 87 coloring books in stock . they ended up putting them on sale and getting rid of 33 of them . the put the 1 they still had onto shelves with 6 on each shelf .</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
+          <t>how many shelves did they use ?</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
           <t>/ - 87 33 6</t>
         </is>
+      </c>
+      <c r="D150" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>a waiter had 62 customers in his section . if 17 of them left and the rest of his tables had 9 people at each tablehow many tables did he have ?</t>
+          <t>a waiter had 62 customers in his section . if 17 of them left and the rest of his tables had 9 people at each table</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
+          <t>how many tables did he have ?</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
           <t>/ - 62 17 9</t>
         </is>
+      </c>
+      <c r="D151" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>tom had 36 pieces of clothing to wash. he put 18 of them in 1 load but decided to split the rest into 2 equal loads .how many pieces of clothing could go in each of the small loads ?</t>
+          <t>tom had 36 pieces of clothing to wash. he put 18 of them in 1 load but decided to split the rest into 2 equal loads .</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
+          <t>how many pieces of clothing could go in each of the small loads ?</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
           <t>/ - 36 18 2</t>
         </is>
+      </c>
+      <c r="D152" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>mike made 90 dollars mowing lawns over the summer . if he spent 45 dollars buying new mower bladeshow many number2 dollar games could he buy with the money he had left ?</t>
+          <t>mike made 90 dollars mowing lawns over the summer . if he spent 45 dollars buying new mower blades</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
+          <t>how many number2 dollar games could he buy with the money he had left ?</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
           <t>/ - 90 45 5</t>
         </is>
+      </c>
+      <c r="D153" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>a pet store had 45 puppies . in 1 day they sold 39 of them and put the rest into cages with 2 in each cage .how many cages did they use ?</t>
+          <t>a pet store had 45 puppies . in 1 day they sold 39 of them and put the rest into cages with 2 in each cage .</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
+          <t>how many cages did they use ?</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
           <t>/ - 45 39 2</t>
         </is>
+      </c>
+      <c r="D154" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>faye picked 88 flowers for her friend 's wedding . she was making bouquets with 5 flowers in each one . if 48 of the flowers wilted before the weddinghow many bouquets could she still make ?</t>
+          <t>faye picked 88 flowers for her friend 's wedding . she was making bouquets with 5 flowers in each one . if 48 of the flowers wilted before the wedding</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
+          <t>how many bouquets could she still make ?</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
           <t>/ - 88 48 5</t>
         </is>
+      </c>
+      <c r="D155" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>tom bought 63 tickets at the state fair . he spent 14 tickets at the 'dunk a clown ' booth and decided to use the rest on rides . if each ride cost 7 ticketshow many rides could he go on ?</t>
+          <t>tom bought 63 tickets at the state fair . he spent 14 tickets at the 'dunk a clown ' booth and decided to use the rest on rides . if each ride cost 7 tickets</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
+          <t>how many rides could he go on ?</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
           <t>/ - 63 14 7</t>
         </is>
+      </c>
+      <c r="D156" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>roger had 63 dollars . if he spent 48 bucks on a new gamehow many number2 dollar toys could he buy with the money he had left ?</t>
+          <t>roger had 63 dollars . if he spent 48 bucks on a new game</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
+          <t>how many number2 dollar toys could he buy with the money he had left ?</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
           <t>/ - 63 48 3</t>
         </is>
+      </c>
+      <c r="D157" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>roger is at the library helping put away books . there are 54 book to put away total but a librarian takes 19 of them and leaves roger with the rest . if he can fit 5 books on a shelfhow many shelves will he need ?</t>
+          <t>roger is at the library helping put away books . there are 54 book to put away total but a librarian takes 19 of them and leaves roger with the rest . if he can fit 5 books on a shelf</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
+          <t>how many shelves will he need ?</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
           <t>/ - 54 19 5</t>
         </is>
+      </c>
+      <c r="D158" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>faye 's team won their baseball game and scored 68 points total . if faye scored 28 of the points and everyone else scored 8 points eachhow many players were on her team ?</t>
+          <t>faye 's team won their baseball game and scored 68 points total . if faye scored 28 of the points and everyone else scored 8 points each</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
+          <t>how many players were on her team ?</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
           <t>/ - 68 28 8</t>
         </is>
+      </c>
+      <c r="D159" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>for halloween bianca received 17 pieces of candy . she ate 2 pieces then placed the rest into piles with 3 in each pile .how many piles could she make ?</t>
+          <t>for halloween bianca received 17 pieces of candy . she ate 2 pieces then placed the rest into piles with 3 in each pile .</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
+          <t>how many piles could she make ?</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
           <t>/ - 17 2 3</t>
         </is>
+      </c>
+      <c r="D160" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>the cafeteria had 51 apples . for lunch they handed out 41 to students and decided to use the rest to make pies . if each pie takes 5 appleshow many pies could they make ?</t>
+          <t>the cafeteria had 51 apples . for lunch they handed out 41 to students and decided to use the rest to make pies . if each pie takes 5 apples</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
+          <t>how many pies could they make ?</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
           <t>/ - 51 41 5</t>
         </is>
+      </c>
+      <c r="D161" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>jerry was selling his old games . he started out with 68 but sold 4 of them . he packed the rest up putting 8 games into each box .how many boxes did he have to use ?</t>
+          <t>jerry was selling his old games . he started out with 68 but sold 4 of them . he packed the rest up putting 8 games into each box .</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
+          <t>how many boxes did he have to use ?</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
           <t>/ - 68 4 8</t>
         </is>
+      </c>
+      <c r="D162" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>there are 58 students trying out for the school 's trivia teams . if 28 of them did n't get picked for the team and the rest were put into 5 groupshow many students would be in each group ?</t>
+          <t>there are 58 students trying out for the school 's trivia teams . if 28 of them did n't get picked for the team and the rest were put into 5 groups</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
+          <t>how many students would be in each group ?</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
           <t>/ - 58 28 5</t>
         </is>
+      </c>
+      <c r="D163" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>a new building needed 14 windows . the builder had already installed 5 of them . if it takes 4 hours to install each windowhow long will it take him to install the rest ?</t>
+          <t>a new building needed 14 windows . the builder had already installed 5 of them . if it takes 4 hours to install each window</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
+          <t>how long will it take him to install the rest ?</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
           <t>* - 14 5 4</t>
         </is>
+      </c>
+      <c r="D164" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>in a video game each enemy defeated gives you 3 points . if a level has 6 enemies total and you destroy all but 2 of themhow many points would you earn ?</t>
+          <t>in a video game each enemy defeated gives you 3 points . if a level has 6 enemies total and you destroy all but 2 of them</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
+          <t>how many points would you earn ?</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
           <t>* - 6 2 3</t>
         </is>
+      </c>
+      <c r="D165" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>wendy earned 5 points for each bag of cans she recycled . if she had 11 bags but did n't recycle 2 of themhow many points would she have earned ?</t>
+          <t>wendy earned 5 points for each bag of cans she recycled . if she had 11 bags but did n't recycle 2 of them</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
+          <t>how many points would she have earned ?</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
           <t>* - 11 2 5</t>
         </is>
+      </c>
+      <c r="D166" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>adam earned 9 dollars for each lawn he mowed . if he had 12 lawns to mow but forgot to mow 8 of themhow much money did he actually earn ?</t>
+          <t>adam earned 9 dollars for each lawn he mowed . if he had 12 lawns to mow but forgot to mow 8 of them</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
+          <t>how much money did he actually earn ?</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
           <t>* - 12 8 9</t>
         </is>
+      </c>
+      <c r="D167" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>a magician was selling magic card decks for 2 dollars each . if he started with 5 decks and by the end of the day he had 3 lefthow much money did he earn ?</t>
+          <t>a magician was selling magic card decks for 2 dollars each . if he started with 5 decks and by the end of the day he had 3 left</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
+          <t>how much money did he earn ?</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
           <t>* - 5 3 2</t>
         </is>
+      </c>
+      <c r="D168" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>at lunch a waiter had 10 customers and 5 of them did n't leave a tip . if he got $ 3 each from the 1 who did tiphow much money did he earn ?</t>
+          <t>at lunch a waiter had 10 customers and 5 of them did n't leave a tip . if he got $ 3 each from the 1 who did tip</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
+          <t>how much money did he earn ?</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
           <t>* - 10 5 3</t>
         </is>
+      </c>
+      <c r="D169" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>a worksheet had 4 problems on it . if a teacher had 9 worksheets to grade and had already graded 5 of themhow many more problems does she have to grade ?</t>
+          <t>a worksheet had 4 problems on it . if a teacher had 9 worksheets to grade and had already graded 5 of them</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
+          <t>how many more problems does she have to grade ?</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
           <t>* - 9 5 4</t>
         </is>
+      </c>
+      <c r="D170" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>dave had 10 video games but 2 of them were n't working . if he wanted to sell the working games for $ 4 eachhow much money could he earn ?</t>
+          <t>dave had 10 video games but 2 of them were n't working . if he wanted to sell the working games for $ 4 each</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
+          <t>how much money could he earn ?</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
           <t>* - 10 2 4</t>
         </is>
+      </c>
+      <c r="D171" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>at a restaurant each adult meal costs $ 8 and kids eat free . if a group of 11 people came in and 2 were kidshow much would it cost for the group to eat ?</t>
+          <t>at a restaurant each adult meal costs $ 8 and kids eat free . if a group of 11 people came in and 2 were kids</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
+          <t>how much would it cost for the group to eat ?</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
           <t>* - 11 2 8</t>
         </is>
+      </c>
+      <c r="D172" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>at the fair kaleb bought 6 tickets . after riding the ferris wheel he had 3 tickets left . if each ticket cost 9 dollarshow much money did kaleb spend riding the ferris wheel ?</t>
+          <t>at the fair kaleb bought 6 tickets . after riding the ferris wheel he had 3 tickets left . if each ticket cost 9 dollars</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
+          <t>how much money did kaleb spend riding the ferris wheel ?</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
           <t>* - 6 3 9</t>
         </is>
+      </c>
+      <c r="D173" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>sam invited 9 friends to a birthday party but 6 could n't come . if he wanted to buy enough cupcakes so each person could have exactly 2how many should he buy ?</t>
+          <t>sam invited 9 friends to a birthday party but 6 could n't come . if he wanted to buy enough cupcakes so each person could have exactly 2</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
+          <t>how many should he buy ?</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
           <t>* - 9 6 2</t>
         </is>
+      </c>
+      <c r="D174" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>anne had 15 sweettarts . if anne gave equal numbers of sweettarts to her 3 friendshow many sweettarts did each person eat ?</t>
+          <t>anne had 15 sweettarts . if anne gave equal numbers of sweettarts to her 3 friends</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
+          <t>how many sweettarts did each person eat ?</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
           <t>/ 15 3</t>
         </is>
+      </c>
+      <c r="D175" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>matthew had 27 crackers . if matthew gave equal numbers of crackers to his 9 friendshow many crackers did each person eat ?</t>
+          <t>matthew had 27 crackers . if matthew gave equal numbers of crackers to his 9 friends</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
+          <t>how many crackers did each person eat ?</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
           <t>/ 27 9</t>
         </is>
+      </c>
+      <c r="D176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>shirley sold 54 boxes of trefoils .how many cases of number1 boxes does shirley need to deliver ?</t>
+          <t>shirley sold 54 boxes of trefoils .</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
+          <t>how many cases of number1 boxes does shirley need to deliver ?</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
           <t>/ 54 6</t>
         </is>
+      </c>
+      <c r="D177" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>billy had 72 lemon heads . if billy gave equal numbers of lemon heads to his 6 friendshow many lemon heads did each person eat ?</t>
+          <t>billy had 72 lemon heads . if billy gave equal numbers of lemon heads to his 6 friends</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
+          <t>how many lemon heads did each person eat ?</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
           <t>/ 72 6</t>
         </is>
+      </c>
+      <c r="D178" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>there are 25 pencils in frances 's pencil collection . if the pencils are organized into 5 groupshow big is each group ?</t>
+          <t>there are 25 pencils in frances 's pencil collection . if the pencils are organized into 5 groups</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
+          <t>how big is each group ?</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
           <t>/ 25 5</t>
         </is>
+      </c>
+      <c r="D179" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>there are 35 eggs in margaret 's egg collection . if the eggs are organized into 5 groupshow big is each group ?</t>
+          <t>there are 35 eggs in margaret 's egg collection . if the eggs are organized into 5 groups</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
+          <t>how big is each group ?</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
           <t>/ 35 5</t>
         </is>
+      </c>
+      <c r="D180" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>there are 9 students in the class and 27 skittles . if the skittles are divided equally among the studentshow many does each student get ?</t>
+          <t>there are 9 students in the class and 27 skittles . if the skittles are divided equally among the students</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
+          <t>how many does each student get ?</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
           <t>/ 27 9</t>
         </is>
+      </c>
+      <c r="D181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>there are 560 bottle caps in terry 's bottle cap collection . if the bottle caps are organized into 80 groupshow big is each group ?</t>
+          <t>there are 560 bottle caps in terry 's bottle cap collection . if the bottle caps are organized into 80 groups</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
+          <t>how big is each group ?</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
           <t>/ 560 80</t>
         </is>
+      </c>
+      <c r="D182" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>there are 64 marbles in phyllis 's marble collection . if the marbles are organized into 32 groupshow big is each group ?</t>
+          <t>there are 64 marbles in phyllis 's marble collection . if the marbles are organized into 32 groups</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
+          <t>how big is each group ?</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
           <t>/ 64 32</t>
         </is>
+      </c>
+      <c r="D183" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>lawrence has 5504 marbles . if he shares them among 64 friendshow many marbles does each friend get ?</t>
+          <t>lawrence has 5504 marbles . if he shares them among 64 friends</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
+          <t>how many marbles does each friend get ?</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
           <t>/ 5504 64</t>
         </is>
+      </c>
+      <c r="D184" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>peter wants to split a collection of pencils into groups of 11 peter has 154 pencils .how many groups will be created ?</t>
+          <t>peter wants to split a collection of pencils into groups of 11 peter has 154 pencils .</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
+          <t>how many groups will be created ?</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
           <t>/ 154 11</t>
         </is>
+      </c>
+      <c r="D185" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>albert is inviting 34 friends to a party . he has 1802 cookies .how many cookies will each friend get ?</t>
+          <t>albert is inviting 34 friends to a party . he has 1802 cookies .</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
+          <t>how many cookies will each friend get ?</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
           <t>/ 1802 34</t>
         </is>
+      </c>
+      <c r="D186" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>there are 820 blocks in bridget 's block collection . if the blocks are organized into 82 groupshow big is each group ?</t>
+          <t>there are 820 blocks in bridget 's block collection . if the blocks are organized into 82 groups</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
+          <t>how big is each group ?</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
           <t>/ 820 82</t>
         </is>
+      </c>
+      <c r="D187" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>there are 407 bananas in philip 's banana collection . if the bananas are organized into 11 groupshow big is each group ?</t>
+          <t>there are 407 bananas in philip 's banana collection . if the bananas are organized into 11 groups</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
+          <t>how big is each group ?</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
           <t>/ 407 11</t>
         </is>
+      </c>
+      <c r="D188" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>peter has 54 tickets and 4 pencils . if he shares the tickets among 9 friendshow many tickets does each friend get ?</t>
+          <t>peter has 54 tickets and 4 pencils . if he shares the tickets among 9 friends</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
+          <t>how many tickets does each friend get ?</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
           <t>/ 54 9</t>
         </is>
+      </c>
+      <c r="D189" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ronald has 16 eggs and 3 candies . if he shares the eggs among 8 friendshow many eggs does each friend get ?</t>
+          <t>ronald has 16 eggs and 3 candies . if he shares the eggs among 8 friends</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
+          <t>how many eggs does each friend get ?</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
           <t>/ 16 8</t>
         </is>
+      </c>
+      <c r="D190" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>rebecca wants to split a collection of eggs into groups of 2 rebecca has 16 eggs and 3 marbles .how many groups will be created ?</t>
+          <t>rebecca wants to split a collection of eggs into groups of 2 rebecca has 16 eggs and 3 marbles .</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
+          <t>how many groups will be created ?</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
           <t>/ 16 2</t>
         </is>
+      </c>
+      <c r="D191" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>laura has 28 blocks and 8 cards . if she shares the blocks among 4 friendshow many blocks does each friend get ?</t>
+          <t>laura has 28 blocks and 8 cards . if she shares the blocks among 4 friends</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
+          <t>how many blocks does each friend get ?</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
           <t>/ 28 4</t>
         </is>
+      </c>
+      <c r="D192" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>catherine has 18 bottle caps and 19 blocks . if she shares the bottle caps among 6 friendshow many bottle caps does each friend get ?</t>
+          <t>catherine has 18 bottle caps and 19 blocks . if she shares the bottle caps among 6 friends</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
+          <t>how many bottle caps does each friend get ?</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
           <t>/ 18 6</t>
         </is>
+      </c>
+      <c r="D193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>denise has 210 crayons and 3 blocks . if she shares the crayons among 30 friendshow many crayons does each friend get ?</t>
+          <t>denise has 210 crayons and 3 blocks . if she shares the crayons among 30 friends</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
+          <t>how many crayons does each friend get ?</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
           <t>/ 210 30</t>
         </is>
+      </c>
+      <c r="D194" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>the school is planning a field trip . the school has 11 classrooms . there are 100 students in the school and 20 seats on each school bus .how many buses are needed to take the trip ?</t>
+          <t>the school is planning a field trip . the school has 11 classrooms . there are 100 students in the school and 20 seats on each school bus .</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
+          <t>how many buses are needed to take the trip ?</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
           <t>/ 100 20</t>
         </is>
+      </c>
+      <c r="D195" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>there are 3300 bananas in janice 's banana collection . janice also has 5 crayons . if the bananas are organized into 75 groupshow big is each group ?</t>
+          <t>there are 3300 bananas in janice 's banana collection . janice also has 5 crayons . if the bananas are organized into 75 groups</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
+          <t>how big is each group ?</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
           <t>/ 3300 75</t>
         </is>
+      </c>
+      <c r="D196" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>janice has 316 bottle caps that must be put away in boxes . douglas comes to help and brings 17 cookies to share with janice . if there are 79 boxeshow many bottle caps must go in each box ?</t>
+          <t>janice has 316 bottle caps that must be put away in boxes . douglas comes to help and brings 17 cookies to share with janice . if there are 79 boxes</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
+          <t>how many bottle caps must go in each box ?</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
           <t>/ 316 79</t>
         </is>
+      </c>
+      <c r="D197" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>chris is inviting 82 friends to a party . he has 1804 cookies and 10 peices of candy .how many cookies will each friend get ?</t>
+          <t>chris is inviting 82 friends to a party . he has 1804 cookies and 10 peices of candy .</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
+          <t>how many cookies will each friend get ?</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
           <t>/ 1804 82</t>
         </is>
+      </c>
+      <c r="D198" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>keith has 5530 marbles and 3 pencils . if he shares the marbles among 79 friendshow many marbles does each friend get ?</t>
+          <t>keith has 5530 marbles and 3 pencils . if he shares the marbles among 79 friends</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
+          <t>how many marbles does each friend get ?</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
           <t>/ 5530 79</t>
         </is>
+      </c>
+      <c r="D199" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>there are 43 students and 1720 apples . each student has 9 skittles . if the apples are divided equally among the studentshow many does each student get ?</t>
+          <t>there are 43 students and 1720 apples . each student has 9 skittles . if the apples are divided equally among the students</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
+          <t>how many does each student get ?</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
           <t>/ 1720 43</t>
         </is>
+      </c>
+      <c r="D200" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
